--- a/metadata/project-metadata.xlsx
+++ b/metadata/project-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kauedesousa/Library/Mobile Documents/com~apple~CloudDocs/Work/Rcode/tricot-protocols/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB483338-7DAE-5041-918B-2816239D8C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF74AB6-12D1-A141-9D9E-F5E4B9ADE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="48540" windowHeight="26300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="38400" windowHeight="21560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>cc-by-4.0</t>
-  </si>
-  <si>
     <t>given_name</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>Bioversity International</t>
   </si>
   <si>
-    <t>v1.2</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
     <t>https://github.com/AgrDataSci/tricot-protocols</t>
   </si>
   <si>
@@ -207,6 +198,15 @@
   </si>
   <si>
     <t>0000-0001-8932-5626</t>
+  </si>
+  <si>
+    <t>v0.1</t>
+  </si>
+  <si>
+    <t>2026-01-30</t>
+  </si>
+  <si>
+    <t>cc-by-sa-4.0</t>
   </si>
 </sst>
 </file>
@@ -294,7 +294,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="282" zoomScaleNormal="282" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -627,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -730,77 +730,77 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -825,44 +825,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -888,18 +888,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -922,10 +922,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +933,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
